--- a/report/support_docs/Task_sheet.xlsx
+++ b/report/support_docs/Task_sheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\git\Mech2\lemongrab-robot\report\support_docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="11310"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24920" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Task Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
   <si>
     <t>Lemongrabs Robot Tasks for Assignment 3</t>
   </si>
@@ -33,9 +38,6 @@
   </si>
   <si>
     <t>everything</t>
-  </si>
-  <si>
-    <t>Needs to be tested</t>
   </si>
   <si>
     <t>Extra details</t>
@@ -236,6 +238,9 @@
   </si>
   <si>
     <t>tasks 1-9</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -339,61 +344,61 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -408,6 +413,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -456,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,537 +713,537 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="8" width="24.5703125" customWidth="1"/>
+    <col min="4" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="8" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="B21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>6</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>7</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="E26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="C28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>9</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>9</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>10</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>11</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>11</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1260,26 +1268,26 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/report/support_docs/Task_sheet.xlsx
+++ b/report/support_docs/Task_sheet.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24920" windowHeight="11310"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24920" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Task Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Code or Pseudo Code" sheetId="2" r:id="rId2"/>
+    <sheet name="Astar" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>Lemongrabs Robot Tasks for Assignment 3</t>
   </si>
@@ -242,12 +243,72 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Initial scan</t>
+  </si>
+  <si>
+    <t>After local input</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Step 13</t>
+  </si>
+  <si>
+    <t>Step 14</t>
+  </si>
+  <si>
+    <t>Step 15</t>
+  </si>
+  <si>
+    <t>Step 16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,8 +355,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +382,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -332,16 +405,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -399,13 +601,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,8 +1058,8 @@
       <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
+      <c r="G4" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -883,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -1293,4 +1541,984 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:AI15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" style="21"/>
+    <col min="2" max="3" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.6328125" style="21"/>
+    <col min="7" max="8" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="3.6328125" style="21"/>
+    <col min="13" max="16" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.6328125" style="21"/>
+    <col min="19" max="22" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.6328125" style="21"/>
+    <col min="25" max="29" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.6328125" style="21"/>
+    <col min="31" max="35" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="3.6328125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="M1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="S1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="Y1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AE1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+    </row>
+    <row r="2" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="32">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24">
+        <v>255</v>
+      </c>
+      <c r="H2" s="25">
+        <v>255</v>
+      </c>
+      <c r="I2" s="32">
+        <v>2</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="M2" s="24">
+        <v>255</v>
+      </c>
+      <c r="N2" s="25">
+        <v>255</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="S2" s="24">
+        <v>255</v>
+      </c>
+      <c r="T2" s="25">
+        <v>255</v>
+      </c>
+      <c r="U2" s="32">
+        <v>254</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>255</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>255</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>254</v>
+      </c>
+      <c r="AB2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="24">
+        <v>255</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>255</v>
+      </c>
+      <c r="AG2" s="32">
+        <v>254</v>
+      </c>
+      <c r="AH2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="23">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="23">
+        <v>4</v>
+      </c>
+      <c r="I3" s="35">
+        <v>3</v>
+      </c>
+      <c r="J3" s="25">
+        <v>2</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="M3" s="27">
+        <v>255</v>
+      </c>
+      <c r="N3" s="23">
+        <v>255</v>
+      </c>
+      <c r="O3" s="35">
+        <v>3</v>
+      </c>
+      <c r="P3" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="S3" s="27">
+        <v>255</v>
+      </c>
+      <c r="T3" s="23">
+        <v>255</v>
+      </c>
+      <c r="U3" s="35">
+        <v>255</v>
+      </c>
+      <c r="V3" s="25">
+        <v>253</v>
+      </c>
+      <c r="W3" s="29">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>255</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>255</v>
+      </c>
+      <c r="AA3" s="35">
+        <v>255</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>255</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>255</v>
+      </c>
+      <c r="AF3" s="23">
+        <v>255</v>
+      </c>
+      <c r="AG3" s="35">
+        <v>255</v>
+      </c>
+      <c r="AH3" s="25">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="34"/>
+      <c r="G4" s="30">
+        <v>6</v>
+      </c>
+      <c r="H4" s="28">
+        <v>5</v>
+      </c>
+      <c r="I4" s="34">
+        <v>4</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="34"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="34"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="28">
+        <v>255</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="24">
+        <v>255</v>
+      </c>
+      <c r="W4" s="34">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="34">
+        <v>255</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>255</v>
+      </c>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="34">
+        <v>255</v>
+      </c>
+      <c r="AH4" s="24">
+        <v>254</v>
+      </c>
+      <c r="AI4" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="31"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="31"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="31"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="23">
+        <v>7</v>
+      </c>
+      <c r="V5" s="23">
+        <v>6</v>
+      </c>
+      <c r="W5" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="23">
+        <v>255</v>
+      </c>
+      <c r="AH5" s="23">
+        <v>255</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="M6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="S6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="Y6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AE6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+    </row>
+    <row r="7" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="32">
+        <v>255</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="G7" s="24">
+        <v>255</v>
+      </c>
+      <c r="H7" s="25">
+        <v>255</v>
+      </c>
+      <c r="I7" s="32">
+        <v>3</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="M7" s="24">
+        <v>255</v>
+      </c>
+      <c r="N7" s="25">
+        <v>255</v>
+      </c>
+      <c r="O7" s="32">
+        <v>254</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="S7" s="24">
+        <v>255</v>
+      </c>
+      <c r="T7" s="25">
+        <v>255</v>
+      </c>
+      <c r="U7" s="32">
+        <v>254</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>255</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>255</v>
+      </c>
+      <c r="AA7" s="32">
+        <v>254</v>
+      </c>
+      <c r="AB7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23">
+        <v>255</v>
+      </c>
+      <c r="C8" s="35">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="G8" s="27">
+        <v>255</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="35">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="25">
+        <v>3</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="M8" s="27">
+        <v>255</v>
+      </c>
+      <c r="N8" s="23">
+        <v>255</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="S8" s="27">
+        <v>255</v>
+      </c>
+      <c r="T8" s="23">
+        <v>255</v>
+      </c>
+      <c r="U8" s="35">
+        <v>255</v>
+      </c>
+      <c r="V8" s="25">
+        <v>253</v>
+      </c>
+      <c r="W8" s="29">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>255</v>
+      </c>
+      <c r="Z8" s="23">
+        <v>255</v>
+      </c>
+      <c r="AA8" s="35">
+        <v>255</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>253</v>
+      </c>
+      <c r="AC8" s="29">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="25">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="34"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="28">
+        <v>5</v>
+      </c>
+      <c r="I9" s="34">
+        <v>4</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="34"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="34">
+        <v>255</v>
+      </c>
+      <c r="V9" s="24">
+        <v>5</v>
+      </c>
+      <c r="W9" s="34">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="34">
+        <v>255</v>
+      </c>
+      <c r="AB9" s="24">
+        <v>254</v>
+      </c>
+      <c r="AC9" s="34">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="31"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="31"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27">
+        <v>8</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="23">
+        <v>6</v>
+      </c>
+      <c r="W10" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="23">
+        <v>255</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="31"/>
+    </row>
+    <row r="11" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="M11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="S11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="Y11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AE11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+    </row>
+    <row r="12" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="25">
+        <v>255</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="G12" s="24">
+        <v>255</v>
+      </c>
+      <c r="H12" s="25">
+        <v>255</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="M12" s="24">
+        <v>255</v>
+      </c>
+      <c r="N12" s="25">
+        <v>255</v>
+      </c>
+      <c r="O12" s="32">
+        <v>254</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>2</v>
+      </c>
+      <c r="S12" s="24">
+        <v>255</v>
+      </c>
+      <c r="T12" s="25">
+        <v>255</v>
+      </c>
+      <c r="U12" s="32">
+        <v>254</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="W12" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>255</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>255</v>
+      </c>
+      <c r="AA12" s="32">
+        <v>254</v>
+      </c>
+      <c r="AB12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" s="26">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI12" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23">
+        <v>4</v>
+      </c>
+      <c r="C13" s="35">
+        <v>3</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="G13" s="27">
+        <v>255</v>
+      </c>
+      <c r="H13" s="23">
+        <v>255</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="25">
+        <v>2</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="M13" s="27">
+        <v>255</v>
+      </c>
+      <c r="N13" s="23">
+        <v>255</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="25">
+        <v>253</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>3</v>
+      </c>
+      <c r="S13" s="27">
+        <v>255</v>
+      </c>
+      <c r="T13" s="23">
+        <v>255</v>
+      </c>
+      <c r="U13" s="35">
+        <v>255</v>
+      </c>
+      <c r="V13" s="25">
+        <v>253</v>
+      </c>
+      <c r="W13" s="29">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>255</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>255</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>255</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="34">
+        <v>4</v>
+      </c>
+      <c r="J14" s="24">
+        <v>3</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="34">
+        <v>6</v>
+      </c>
+      <c r="P14" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>4</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="34">
+        <v>255</v>
+      </c>
+      <c r="V14" s="24">
+        <v>5</v>
+      </c>
+      <c r="W14" s="34">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="34">
+        <v>255</v>
+      </c>
+      <c r="AB14" s="24">
+        <v>254</v>
+      </c>
+      <c r="AC14" s="34">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="34"/>
+    </row>
+    <row r="15" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="31"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="31"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="23">
+        <v>255</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="23">
+        <v>255</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>255</v>
+      </c>
+      <c r="AC15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/report/support_docs/Task_sheet.xlsx
+++ b/report/support_docs/Task_sheet.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\git\Mech2\lemongrab-robot\report\support_docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24920" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Task Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Code or Pseudo Code" sheetId="2" r:id="rId2"/>
     <sheet name="Astar" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -597,53 +592,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,7 +707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,7 +742,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,33 +956,33 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="8" width="24.54296875" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1082,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
@@ -1357,7 +1352,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12" t="s">
@@ -1369,7 +1364,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12" t="s">
@@ -1381,7 +1376,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12" t="s">
@@ -1393,7 +1388,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>9</v>
       </c>
@@ -1415,7 +1410,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11" t="s">
@@ -1427,7 +1422,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>10</v>
       </c>
@@ -1449,7 +1444,7 @@
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>11</v>
       </c>
@@ -1471,26 +1466,26 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
   </sheetData>
@@ -1516,13 +1511,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="47.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1550,973 +1545,976 @@
   </sheetPr>
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" style="21"/>
-    <col min="2" max="3" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.6328125" style="21"/>
-    <col min="7" max="8" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="3.6328125" style="21"/>
-    <col min="13" max="16" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.6328125" style="21"/>
-    <col min="19" max="22" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.6328125" style="21"/>
-    <col min="25" max="29" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.6328125" style="21"/>
-    <col min="31" max="35" width="3.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="3.6328125" style="21"/>
+    <col min="1" max="1" width="3.5703125" style="19"/>
+    <col min="2" max="3" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.5703125" style="19"/>
+    <col min="7" max="8" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="3.5703125" style="19"/>
+    <col min="13" max="16" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.5703125" style="19"/>
+    <col min="19" max="22" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.5703125" style="19"/>
+    <col min="25" max="29" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.5703125" style="19"/>
+    <col min="31" max="35" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="3.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AE1" s="22" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AE1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-    </row>
-    <row r="2" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24">
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+    </row>
+    <row r="2" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
         <f>1+3</f>
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="G2" s="24">
-        <v>255</v>
-      </c>
-      <c r="H2" s="25">
-        <v>255</v>
-      </c>
-      <c r="I2" s="32">
-        <v>2</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="E2" s="23"/>
+      <c r="G2" s="21">
+        <v>255</v>
+      </c>
+      <c r="H2" s="22">
+        <v>255</v>
+      </c>
+      <c r="I2" s="29">
+        <v>2</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="M2" s="24">
-        <v>255</v>
-      </c>
-      <c r="N2" s="25">
-        <v>255</v>
-      </c>
-      <c r="O2" s="32" t="s">
+      <c r="K2" s="23"/>
+      <c r="M2" s="21">
+        <v>255</v>
+      </c>
+      <c r="N2" s="22">
+        <v>255</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="S2" s="24">
-        <v>255</v>
-      </c>
-      <c r="T2" s="25">
-        <v>255</v>
-      </c>
-      <c r="U2" s="32">
+      <c r="Q2" s="23"/>
+      <c r="S2" s="21">
+        <v>255</v>
+      </c>
+      <c r="T2" s="22">
+        <v>255</v>
+      </c>
+      <c r="U2" s="29">
         <v>254</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="24">
-        <v>255</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>255</v>
-      </c>
-      <c r="AA2" s="32">
+      <c r="W2" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>255</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>255</v>
+      </c>
+      <c r="AA2" s="29">
         <v>254</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="26">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="24">
-        <v>255</v>
-      </c>
-      <c r="AF2" s="25">
-        <v>255</v>
-      </c>
-      <c r="AG2" s="32">
+      <c r="AC2" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>255</v>
+      </c>
+      <c r="AF2" s="22">
+        <v>255</v>
+      </c>
+      <c r="AG2" s="29">
         <v>254</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="23">
+      <c r="AI2" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
+      <c r="B3" s="20">
         <f>1+3</f>
         <v>4</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="27" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="26"/>
+      <c r="G3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="20">
         <v>4</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="32">
         <v>3</v>
       </c>
-      <c r="J3" s="25">
-        <v>2</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="M3" s="27">
-        <v>255</v>
-      </c>
-      <c r="N3" s="23">
-        <v>255</v>
-      </c>
-      <c r="O3" s="35">
+      <c r="J3" s="22">
+        <v>2</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="M3" s="24">
+        <v>255</v>
+      </c>
+      <c r="N3" s="20">
+        <v>255</v>
+      </c>
+      <c r="O3" s="32">
         <v>3</v>
       </c>
-      <c r="P3" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="29"/>
-      <c r="S3" s="27">
-        <v>255</v>
-      </c>
-      <c r="T3" s="23">
-        <v>255</v>
-      </c>
-      <c r="U3" s="35">
-        <v>255</v>
-      </c>
-      <c r="V3" s="25">
+      <c r="P3" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="S3" s="24">
+        <v>255</v>
+      </c>
+      <c r="T3" s="20">
+        <v>255</v>
+      </c>
+      <c r="U3" s="32">
+        <v>255</v>
+      </c>
+      <c r="V3" s="22">
         <v>253</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="26">
         <v>3</v>
       </c>
-      <c r="Y3" s="27">
-        <v>255</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>255</v>
-      </c>
-      <c r="AA3" s="35">
-        <v>255</v>
-      </c>
-      <c r="AB3" s="25">
-        <v>255</v>
-      </c>
-      <c r="AC3" s="29">
+      <c r="Y3" s="24">
+        <v>255</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>255</v>
+      </c>
+      <c r="AA3" s="32">
+        <v>255</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>255</v>
+      </c>
+      <c r="AC3" s="26">
         <v>3</v>
       </c>
-      <c r="AE3" s="27">
-        <v>255</v>
-      </c>
-      <c r="AF3" s="23">
-        <v>255</v>
-      </c>
-      <c r="AG3" s="35">
-        <v>255</v>
-      </c>
-      <c r="AH3" s="25">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="29">
+      <c r="AE3" s="24">
+        <v>255</v>
+      </c>
+      <c r="AF3" s="20">
+        <v>255</v>
+      </c>
+      <c r="AG3" s="32">
+        <v>255</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="34"/>
-      <c r="G4" s="30">
+    <row r="4" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="31"/>
+      <c r="G4" s="27">
         <v>6</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="25">
         <v>5</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="31">
         <v>4</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="34"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="34"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="28">
-        <v>255</v>
-      </c>
-      <c r="U4" s="34" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="31"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="31"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25">
+        <v>255</v>
+      </c>
+      <c r="U4" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="24">
-        <v>255</v>
-      </c>
-      <c r="W4" s="34">
+      <c r="V4" s="21">
+        <v>255</v>
+      </c>
+      <c r="W4" s="31">
         <v>4</v>
       </c>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="34">
-        <v>255</v>
-      </c>
-      <c r="AB4" s="24" t="s">
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="31">
+        <v>255</v>
+      </c>
+      <c r="AB4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AC4" s="34">
-        <v>255</v>
-      </c>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="34">
-        <v>255</v>
-      </c>
-      <c r="AH4" s="24">
+      <c r="AC4" s="31">
+        <v>255</v>
+      </c>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="31">
+        <v>255</v>
+      </c>
+      <c r="AH4" s="21">
         <v>254</v>
       </c>
-      <c r="AI4" s="34" t="s">
+      <c r="AI4" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="31"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="31"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="31"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="23">
+    <row r="5" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="28"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="28"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="20">
         <v>7</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="20">
         <v>6</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="28">
         <v>5</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23">
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20">
         <v>6</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="28">
         <v>5</v>
       </c>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="23">
-        <v>255</v>
-      </c>
-      <c r="AH5" s="23">
-        <v>255</v>
-      </c>
-      <c r="AI5" s="31">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="20">
+        <v>255</v>
+      </c>
+      <c r="AH5" s="20">
+        <v>255</v>
+      </c>
+      <c r="AI5" s="28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="22" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="M6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="S6" s="22" t="s">
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="S6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="Y6" s="22" t="s">
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="Y6" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AE6" s="22" t="s">
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AE6" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-    </row>
-    <row r="7" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24">
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+    </row>
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="32">
-        <v>255</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="29">
+        <v>255</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="G7" s="24">
-        <v>255</v>
-      </c>
-      <c r="H7" s="25">
-        <v>255</v>
-      </c>
-      <c r="I7" s="32">
+      <c r="E7" s="23"/>
+      <c r="G7" s="21">
+        <v>255</v>
+      </c>
+      <c r="H7" s="22">
+        <v>255</v>
+      </c>
+      <c r="I7" s="29">
+        <v>2</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="M7" s="21">
+        <v>255</v>
+      </c>
+      <c r="N7" s="22">
+        <v>255</v>
+      </c>
+      <c r="O7" s="29">
+        <v>254</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="S7" s="21">
+        <v>255</v>
+      </c>
+      <c r="T7" s="22">
+        <v>255</v>
+      </c>
+      <c r="U7" s="29">
+        <v>254</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>255</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>255</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>254</v>
+      </c>
+      <c r="AB7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20">
+        <v>255</v>
+      </c>
+      <c r="C8" s="32">
         <v>3</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="G8" s="24">
+        <v>255</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="32">
+        <v>3</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="M8" s="24">
+        <v>255</v>
+      </c>
+      <c r="N8" s="20">
+        <v>255</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="S8" s="24">
+        <v>255</v>
+      </c>
+      <c r="T8" s="20">
+        <v>255</v>
+      </c>
+      <c r="U8" s="32">
+        <v>255</v>
+      </c>
+      <c r="V8" s="22">
+        <v>253</v>
+      </c>
+      <c r="W8" s="26">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>255</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>255</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>255</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="26">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="22">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25">
+        <v>5</v>
+      </c>
+      <c r="I9" s="31">
+        <v>4</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="31">
+        <v>4</v>
+      </c>
+      <c r="P9" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="31">
+        <v>255</v>
+      </c>
+      <c r="V9" s="21">
+        <v>5</v>
+      </c>
+      <c r="W9" s="31">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="31">
+        <v>255</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>254</v>
+      </c>
+      <c r="AC9" s="31">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="28"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="28"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="28"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24">
+        <v>8</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="20">
+        <v>6</v>
+      </c>
+      <c r="W10" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="20">
+        <v>255</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="28">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="28"/>
+    </row>
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="G11" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="M11" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="S11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="Y11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AE11" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+    </row>
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="22">
+        <v>255</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="M7" s="24">
-        <v>255</v>
-      </c>
-      <c r="N7" s="25">
-        <v>255</v>
-      </c>
-      <c r="O7" s="32">
+      <c r="E12" s="23"/>
+      <c r="G12" s="21">
+        <v>255</v>
+      </c>
+      <c r="H12" s="22">
+        <v>255</v>
+      </c>
+      <c r="I12" s="29">
+        <v>2</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="M12" s="21">
+        <v>255</v>
+      </c>
+      <c r="N12" s="22">
+        <v>255</v>
+      </c>
+      <c r="O12" s="29">
         <v>254</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="S7" s="24">
-        <v>255</v>
-      </c>
-      <c r="T7" s="25">
-        <v>255</v>
-      </c>
-      <c r="U7" s="32">
+      <c r="Q12" s="23">
+        <v>2</v>
+      </c>
+      <c r="S12" s="21">
+        <v>255</v>
+      </c>
+      <c r="T12" s="22">
+        <v>255</v>
+      </c>
+      <c r="U12" s="29">
         <v>254</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="V12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="W7" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>255</v>
-      </c>
-      <c r="Z7" s="25">
-        <v>255</v>
-      </c>
-      <c r="AA7" s="32">
+      <c r="W12" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>255</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>255</v>
+      </c>
+      <c r="AA12" s="29">
         <v>254</v>
       </c>
-      <c r="AB7" s="33" t="s">
+      <c r="AB12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AC7" s="26">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="33" t="s">
+      <c r="AC12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AI7" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27">
+      <c r="AI12" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="23">
-        <v>255</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B13" s="20">
+        <v>4</v>
+      </c>
+      <c r="C13" s="32">
         <v>3</v>
       </c>
-      <c r="D8" s="25">
-        <v>2</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="G8" s="27">
-        <v>255</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="D13" s="22">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="G13" s="24">
+        <v>255</v>
+      </c>
+      <c r="H13" s="20">
+        <v>255</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="35">
-        <f>1+3</f>
+      <c r="J13" s="22">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="M13" s="24">
+        <v>255</v>
+      </c>
+      <c r="N13" s="20">
+        <v>255</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="22">
+        <v>253</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>3</v>
+      </c>
+      <c r="S13" s="24">
+        <v>255</v>
+      </c>
+      <c r="T13" s="20">
+        <v>255</v>
+      </c>
+      <c r="U13" s="32">
+        <v>255</v>
+      </c>
+      <c r="V13" s="22">
+        <v>253</v>
+      </c>
+      <c r="W13" s="26">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="24">
+        <v>255</v>
+      </c>
+      <c r="Z13" s="20">
+        <v>255</v>
+      </c>
+      <c r="AA13" s="32">
+        <v>255</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="31"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="31">
         <v>4</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J14" s="21">
         <v>3</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="M8" s="27">
-        <v>255</v>
-      </c>
-      <c r="N8" s="23">
-        <v>255</v>
-      </c>
-      <c r="O8" s="35" t="s">
+      <c r="K14" s="31"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="31">
+        <v>6</v>
+      </c>
+      <c r="P14" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>4</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="31">
+        <v>255</v>
+      </c>
+      <c r="V14" s="21">
+        <v>5</v>
+      </c>
+      <c r="W14" s="31">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="31">
+        <v>255</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>254</v>
+      </c>
+      <c r="AC14" s="31">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="31"/>
+    </row>
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="28"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="28"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="20">
+        <v>255</v>
+      </c>
+      <c r="V15" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="29"/>
-      <c r="S8" s="27">
-        <v>255</v>
-      </c>
-      <c r="T8" s="23">
-        <v>255</v>
-      </c>
-      <c r="U8" s="35">
-        <v>255</v>
-      </c>
-      <c r="V8" s="25">
-        <v>253</v>
-      </c>
-      <c r="W8" s="29">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="27">
-        <v>255</v>
-      </c>
-      <c r="Z8" s="23">
-        <v>255</v>
-      </c>
-      <c r="AA8" s="35">
-        <v>255</v>
-      </c>
-      <c r="AB8" s="25">
-        <v>253</v>
-      </c>
-      <c r="AC8" s="29">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="25">
-        <v>2</v>
-      </c>
-      <c r="AI8" s="29" t="s">
+      <c r="W15" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="20">
+        <v>255</v>
+      </c>
+      <c r="AB15" s="20">
+        <v>255</v>
+      </c>
+      <c r="AC15" s="28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="28">
-        <v>5</v>
-      </c>
-      <c r="I9" s="34">
-        <v>4</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="34"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="34"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="34">
-        <v>255</v>
-      </c>
-      <c r="V9" s="24">
-        <v>5</v>
-      </c>
-      <c r="W9" s="34">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="34">
-        <v>255</v>
-      </c>
-      <c r="AB9" s="24">
-        <v>254</v>
-      </c>
-      <c r="AC9" s="34">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="34">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="31"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="31"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27">
-        <v>8</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="23">
-        <v>6</v>
-      </c>
-      <c r="W10" s="31">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="23">
-        <v>255</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC10" s="31">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="31"/>
-    </row>
-    <row r="11" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="M11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="S11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="Y11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AE11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-    </row>
-    <row r="12" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="25">
-        <v>255</v>
-      </c>
-      <c r="C12" s="32">
-        <v>2</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="G12" s="24">
-        <v>255</v>
-      </c>
-      <c r="H12" s="25">
-        <v>255</v>
-      </c>
-      <c r="I12" s="32">
-        <v>2</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="M12" s="24">
-        <v>255</v>
-      </c>
-      <c r="N12" s="25">
-        <v>255</v>
-      </c>
-      <c r="O12" s="32">
-        <v>254</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="26">
-        <v>2</v>
-      </c>
-      <c r="S12" s="24">
-        <v>255</v>
-      </c>
-      <c r="T12" s="25">
-        <v>255</v>
-      </c>
-      <c r="U12" s="32">
-        <v>254</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="W12" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="24">
-        <v>255</v>
-      </c>
-      <c r="Z12" s="25">
-        <v>255</v>
-      </c>
-      <c r="AA12" s="32">
-        <v>254</v>
-      </c>
-      <c r="AB12" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC12" s="26">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI12" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23">
-        <v>4</v>
-      </c>
-      <c r="C13" s="35">
-        <v>3</v>
-      </c>
-      <c r="D13" s="25">
-        <v>2</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="G13" s="27">
-        <v>255</v>
-      </c>
-      <c r="H13" s="23">
-        <v>255</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="25">
-        <v>2</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="M13" s="27">
-        <v>255</v>
-      </c>
-      <c r="N13" s="23">
-        <v>255</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="25">
-        <v>253</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>3</v>
-      </c>
-      <c r="S13" s="27">
-        <v>255</v>
-      </c>
-      <c r="T13" s="23">
-        <v>255</v>
-      </c>
-      <c r="U13" s="35">
-        <v>255</v>
-      </c>
-      <c r="V13" s="25">
-        <v>253</v>
-      </c>
-      <c r="W13" s="29">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="27">
-        <v>255</v>
-      </c>
-      <c r="Z13" s="23">
-        <v>255</v>
-      </c>
-      <c r="AA13" s="35">
-        <v>255</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="29">
-        <v>3</v>
-      </c>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI13" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="34">
-        <v>4</v>
-      </c>
-      <c r="J14" s="24">
-        <v>3</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="34">
-        <v>6</v>
-      </c>
-      <c r="P14" s="24">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>4</v>
-      </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="34">
-        <v>255</v>
-      </c>
-      <c r="V14" s="24">
-        <v>5</v>
-      </c>
-      <c r="W14" s="34">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="34">
-        <v>255</v>
-      </c>
-      <c r="AB14" s="24">
-        <v>254</v>
-      </c>
-      <c r="AC14" s="34">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="34"/>
-    </row>
-    <row r="15" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="31"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="31"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="23">
-        <v>255</v>
-      </c>
-      <c r="V15" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="W15" s="31">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="23">
-        <v>255</v>
-      </c>
-      <c r="AB15" s="23">
-        <v>255</v>
-      </c>
-      <c r="AC15" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="31"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="M11:Q11"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
